--- a/RPM_verification/RPM_data.xlsx
+++ b/RPM_verification/RPM_data.xlsx
@@ -19,7 +19,7 @@
     <sheet name="90" sheetId="4" r:id="rId5"/>
     <sheet name="150" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -922,8 +922,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1694,16 +1695,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2754,7 +2755,7 @@
         <v>2395</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D32" si="0">C3*(1/1000)*(1/60)</f>
+        <f t="shared" ref="D3:D31" si="0">C3*(1/1000)*(1/60)</f>
         <v>3.991666666666667E-2</v>
       </c>
       <c r="E3">
@@ -5318,7 +5319,7 @@
         <v>21350</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D71" si="2">C33*(1/1000)*(1/60)</f>
+        <f t="shared" ref="D33:D70" si="2">C33*(1/1000)*(1/60)</f>
         <v>0.35583333333333333</v>
       </c>
       <c r="E33">

--- a/RPM_verification/RPM_data.xlsx
+++ b/RPM_verification/RPM_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5865" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,16 @@
     <sheet name="70" sheetId="3" r:id="rId4"/>
     <sheet name="90" sheetId="4" r:id="rId5"/>
     <sheet name="150" sheetId="5" r:id="rId6"/>
+    <sheet name="30Trial2" sheetId="7" r:id="rId7"/>
+    <sheet name="50Trial2" sheetId="8" r:id="rId8"/>
+    <sheet name="70Trial2" sheetId="9" r:id="rId9"/>
+    <sheet name="90Trial2" sheetId="10" r:id="rId10"/>
+    <sheet name="150Trial2" sheetId="11" r:id="rId11"/>
+    <sheet name="30Trial3" sheetId="12" r:id="rId12"/>
+    <sheet name="50Trial3" sheetId="13" r:id="rId13"/>
+    <sheet name="70Trial3" sheetId="14" r:id="rId14"/>
+    <sheet name="90Trial3" sheetId="15" r:id="rId15"/>
+    <sheet name="150Trial3" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2031,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2097,6 +2107,5167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>13343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>14010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>14677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>16012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>16679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>17347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>18013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>18681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>19348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>20683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>22017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>22685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>23352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>24019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>24686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>25353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>26021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>26688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>27355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>28023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>29357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>30024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>30692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>32026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>32694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>33361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>34028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>34695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>35362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>36030</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>36697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>37364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>38032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>38699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>39366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>40034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>40701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>41368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>42035</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>46706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>47374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>48040</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>48708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>49375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>50042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>50710</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>51377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>52044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>52712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>53378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>54046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>54714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>55380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>56048</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>56716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>57382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>58050</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>58716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>59384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>60052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>11602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>12402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>13202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>13602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>14003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>14403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>14803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>15203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>16003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>16403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>16804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>17204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>17603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>18004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>18404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>18804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>19204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>19604</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>20405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>21205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>21605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>22405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>22805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>23206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>23605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>24005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>24406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>24806</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>25205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>25606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>26006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>26407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>26806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>27206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>27607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>28007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>28406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>28807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>29207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>29607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>30407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>30808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>31207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>31607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>32008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>32408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>32808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>33608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>34009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>34408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>34808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>35209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>35609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>36009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>36809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>37210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>37609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>38010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>38410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>38810</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>39210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>39610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>40411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>40810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>41211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>41611</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>46412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>46812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>47212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>47613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>48013</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>48412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>48813</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>49213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>49612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>50013</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>50413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>50814</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>51213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>51613</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>52014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>52414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>52813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>53214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>53614</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>54015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>54414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>54814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>55215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>55615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>56015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>56415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>56815</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>57215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>57615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>58015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>58416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>58815</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>59216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>59616</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>60016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>9991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>11991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>13991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>17992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>19992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>23992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>25991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>27992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>29992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>31992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>33992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>35992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>37993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>39993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>41993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>47993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>49993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>51993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>53993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>55993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>57994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>59993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>61993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>11995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>13195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>14396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>15596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>16796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>17996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>19196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>20396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>21596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>23997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>25197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>26397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>27597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>28796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>29996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>31196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>32396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>33597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>34797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>35997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>37197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>38397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>39597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>40797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>41997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>46798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>47998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>49197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>50397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>51597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>52798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>53998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>55198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>56398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>57598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>58798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>59998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>61199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>14576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>15434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>16291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>17149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>18007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>18864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>19722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>20579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>21437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>22295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>24011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>24868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>25726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>26583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>27441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>28298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>29156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>30014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>30872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>31730</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>32587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>34303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>35160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>36018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>36875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>37733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>38590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>39449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>40307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>41164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>42022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>46310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>47167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>48026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>48883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>49741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>50598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>51456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>52314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>53171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>54029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>54886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>55744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>56602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>57460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>58318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>59175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>60033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>10672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>13341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>14009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>14676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>15343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>16010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>16678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>17345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>18012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>18680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>19347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>20682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>21348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>22016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>22683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>23350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>24018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>24685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>25352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>26020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>26686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>27354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>28022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>28688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>29356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>30690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>31358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>32024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>32692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>33360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>34026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>34694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>35362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>36028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>36696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>37362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>38030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>38698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>40032</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>40700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>41366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>42701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>46704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>47372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>48039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>48706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>49374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>50041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>50708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>51376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>52043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>52710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>53378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>54044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>54712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>55379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>56046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>56714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>57381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>58048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>58716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>59383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>60050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>11601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>12401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>13201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>13602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>14402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>14802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>15202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>15602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>16003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>16402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>16803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>17203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>17603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>18003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>18403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>18803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>19203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>19603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>20404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>20803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>21204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>21604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>22404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>22804</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>23205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>23604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>24004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>24405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>24805</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>25204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>25605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>26005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>26406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>26805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>27205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>27606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>28005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>28405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>28806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>29206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>29606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>30807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>31206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>31607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>32007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>32407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>32807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>33207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>33607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>34008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>34407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>34808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>35208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>35608</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>36008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>36408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>36808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>37209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>37608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>38009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>38409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>38809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>39209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>39609</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>40009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>40409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>40809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>41210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>41610</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>46412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>46811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>47211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>47612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>48012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>48411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>48812</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>49212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>49612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>50012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>50412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>50813</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>51212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>51612</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>52013</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>52413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>52813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>53213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>53613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>54014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>54413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>54813</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>55214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>55614</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>56014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>56414</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>56814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>57214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>57614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>58014</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>58415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>58814</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>59215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>59615</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>60015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8730,4 +13901,1265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>13991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>17991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>19991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>23991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>25991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>27991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>29991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>33992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>35992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>37991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>39991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>47992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>49992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>51992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>53992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>55992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>57992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>59992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>61993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>11995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>13195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>14395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>15595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>16795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>17995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>19195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>20395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>21595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>23995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>25196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>26396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>27596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>28796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>29996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>31196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>32396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>33596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>34797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>35997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>37196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>38396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>39596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>40796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>41996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>46797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>47997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>49197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>50397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>51597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>52797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>53998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>55198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>56398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>57598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>58797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>59997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>61197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>14577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>15434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>16292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>17149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>18007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>18864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>19722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>20581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>21438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>22296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>24011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>24868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>25726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>26584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>27441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>28299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>29157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>30872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>31730</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>32588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>34303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>35160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>36018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>36876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>37734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>39449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>40307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>41164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>42022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>47169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>48026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>48884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>49741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>50599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>51456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>52314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>53172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>54030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>54888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>55745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>56603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>57460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>58318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>59176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>60033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RPM_verification/RPM_data.xlsx
+++ b/RPM_verification/RPM_data.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merc.MERCURY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merc.MERCURY\Documents\project-g-force\RPM_verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
     <sheet name="Results T2" sheetId="17" r:id="rId2"/>
     <sheet name="Results T3" sheetId="18" r:id="rId3"/>
-    <sheet name="30" sheetId="1" r:id="rId4"/>
-    <sheet name="50" sheetId="2" r:id="rId5"/>
-    <sheet name="70" sheetId="3" r:id="rId6"/>
-    <sheet name="90" sheetId="4" r:id="rId7"/>
-    <sheet name="150" sheetId="5" r:id="rId8"/>
+    <sheet name="30T1" sheetId="1" r:id="rId4"/>
+    <sheet name="50T1" sheetId="2" r:id="rId5"/>
+    <sheet name="70T1" sheetId="3" r:id="rId6"/>
+    <sheet name="90T1" sheetId="4" r:id="rId7"/>
+    <sheet name="150T1" sheetId="5" r:id="rId8"/>
     <sheet name="30Trial2" sheetId="7" r:id="rId9"/>
     <sheet name="50Trial2" sheetId="8" r:id="rId10"/>
     <sheet name="70Trial2" sheetId="9" r:id="rId11"/>
@@ -4374,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <f>'30'!F2</f>
+        <f>'30T1'!F2</f>
         <v>30.016686938266041</v>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <f>'50'!F2</f>
+        <f>'50T1'!F2</f>
         <v>50.016859206208871</v>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <f>'70'!F2</f>
+        <f>'70T1'!F2</f>
         <v>69.979420256337349</v>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <f>'90'!F2</f>
+        <f>'90T1'!F2</f>
         <v>89.936631472127829</v>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
         <v>150</v>
       </c>
       <c r="B6">
-        <f>'150'!F2</f>
+        <f>'150T1'!F2</f>
         <v>149.98617017628763</v>
       </c>
     </row>
@@ -14640,7 +14640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -17813,8 +17813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/RPM_verification/RPM_data.xlsx
+++ b/RPM_verification/RPM_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -789,6 +789,21 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>Summary!$A:$A</c:f>
@@ -1310,6 +1325,21 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4352,7 +4382,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6502,7 +6532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -17813,8 +17843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18702,7 +18732,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
